--- a/molgenis-app/src/test/resources/emx_all_datatypes_metadata_only.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes_metadata_only.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>text</t>
   </si>
@@ -257,24 +257,12 @@
     <t>parent</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Molgenis test package</t>
   </si>
   <si>
     <t>package</t>
   </si>
   <si>
-    <t>molgenis</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
     <t>euro</t>
   </si>
   <si>
@@ -282,13 +270,31 @@
   </si>
   <si>
     <t>universe</t>
+  </si>
+  <si>
+    <t>euro_nl</t>
+  </si>
+  <si>
+    <t>euro_nl_org</t>
+  </si>
+  <si>
+    <t>euro_nl_org_molgenis</t>
+  </si>
+  <si>
+    <t>euro_nl_org_molgenis_test</t>
+  </si>
+  <si>
+    <t>euro_nl_org_molgenis_test_TypeTestRef</t>
+  </si>
+  <si>
+    <t>euro_nl_org_molgenis_test_TypeTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +306,14 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,7 +336,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -330,17 +344,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -642,13 +684,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -664,26 +708,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
@@ -694,26 +738,27 @@
         <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -727,13 +772,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -742,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -753,7 +798,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
@@ -764,7 +809,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -781,16 +826,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -848,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -868,7 +913,7 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -891,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -911,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -931,7 +976,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
@@ -951,13 +996,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -971,13 +1016,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -991,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -1011,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -1028,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1045,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -1065,7 +1110,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
@@ -1085,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
@@ -1102,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -1122,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -1139,7 +1184,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -1162,7 +1207,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
@@ -1182,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -1199,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -1219,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>56</v>
@@ -1239,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -1256,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -1276,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
@@ -1293,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -1316,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -1339,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -1356,7 +1401,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -1373,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -1399,7 +1444,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
@@ -1425,13 +1470,13 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1448,13 +1493,13 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1468,7 +1513,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -1488,7 +1533,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
@@ -1505,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -1522,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -1539,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1562,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
         <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1582,7 +1627,7 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -1602,7 +1647,7 @@
         <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1622,7 +1667,7 @@
         <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
@@ -1642,7 +1687,7 @@
         <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
@@ -1662,13 +1707,13 @@
         <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>

--- a/molgenis-app/src/test/resources/emx_all_datatypes_metadata_only.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes_metadata_only.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>text</t>
   </si>
@@ -270,18 +270,6 @@
   </si>
   <si>
     <t>org</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>earth</t>
-  </si>
-  <si>
-    <t>universe</t>
   </si>
 </sst>
 </file>
@@ -640,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -684,32 +672,6 @@
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1644,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
